--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/FormatSlicers_03_07.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/FormatSlicers_03_07.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3137A31F-C762-4029-BBA6-CC586B11C021}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ADCE7E-E1B3-4E2D-8F2C-2448871B4CC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -22,12 +22,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OrderDetails!$G$1:$G$275</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">[1]Products!$B$1</definedName>
+    <definedName name="SegmentaciónDeDatos_Category">#N/A</definedName>
   </definedNames>
   <calcPr calcId="179021" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -42,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="250">
   <si>
     <t>OrderNum</t>
   </si>
@@ -785,19 +794,19 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Sum of Total Price</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -847,7 +856,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{453ECAE6-7D8F-4077-9B1E-7EAF2BE3F477}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -855,10 +875,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -870,16 +890,107 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Estilo de segmentación de datos 1" pivot="0" table="0" count="0" xr9:uid="{13D6B997-D1AD-421C-ABEF-38B00697CD04}"/>
+    <tableStyle name="Estilo de segmentación de datos 2" pivot="0" table="0" count="1" xr9:uid="{58D4B919-B226-413A-BBAD-52258B70EBE9}">
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1">
+        <x14:slicerStyle name="Estilo de segmentación de datos 1"/>
+        <x14:slicerStyle name="Estilo de segmentación de datos 2"/>
+      </x14:slicerStyles>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>93784</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>145807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57618</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Category">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE52E4D-5A91-4477-8240-484673B0154A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Category"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3163765" y="336307"/>
+              <a:ext cx="2792026" cy="1224328"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-GT" sz="1100"/>
+                <a:t>Esta forma representa una segmentación de datos. La segmentación de datos se admite en Excel 2010 y versiones posteriores.
+Si la forma se modificó en una versión anterior de Excel o si el libro se guardó en Excel 2003 o una versión anterior, no se puede usar la segmentación de datos.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4848,8 +4959,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4875,11 +4986,11 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="5"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
         <item x="4"/>
         <item t="default"/>
       </items>
@@ -5245,22 +5356,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="5"/>
     </i>
@@ -5286,6 +5382,32 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Category" xr10:uid="{0445DE1B-93B3-4E09-9888-E3DC630ADFC9}" sourceName="Category">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="778356036">
+      <items count="6">
+        <i x="2"/>
+        <i x="1"/>
+        <i x="5"/>
+        <i x="3"/>
+        <i x="0"/>
+        <i x="4" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Category" xr10:uid="{C9FB1B81-7BC4-4BD7-AB72-2D0C2179E891}" cache="SegmentaciónDeDatos_Category" caption="Category" columnCount="2" style="Estilo de segmentación de datos 2" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B66E5DA-FCEB-4154-B20A-4E1700DF3609}" name="AllOrderDetails" displayName="AllOrderDetails" ref="A1:J275" totalsRowShown="0">
   <autoFilter ref="A1:J275" xr:uid="{267CAB33-8258-41DB-85DA-0708B87E3634}"/>
@@ -5293,23 +5415,23 @@
     <sortCondition ref="D1:D275"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="9" xr3:uid="{DAD59615-226B-4A22-8326-9B63E8DF9B64}" name="OrderNum" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{A4CD1EFF-21D3-4004-B505-8B16F2E14272}" name="CustFullName" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{9FAAFF6D-9EFB-40D0-96FC-A9DC2AC13BB8}" name="State" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9810CF2E-978C-4486-BDB9-58C9BAEECE63}" name="Date of Purchase" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{23982B9B-C2D3-4D47-9BFB-4D707B15B62E}" name="Category" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{DAD59615-226B-4A22-8326-9B63E8DF9B64}" name="OrderNum" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{A4CD1EFF-21D3-4004-B505-8B16F2E14272}" name="CustFullName" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9FAAFF6D-9EFB-40D0-96FC-A9DC2AC13BB8}" name="State" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9810CF2E-978C-4486-BDB9-58C9BAEECE63}" name="Date of Purchase" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{23982B9B-C2D3-4D47-9BFB-4D707B15B62E}" name="Category" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{B2635F67-BF90-4DBF-8F83-49BD22B87B81}" name="SKU"/>
     <tableColumn id="6" xr3:uid="{212BE5BE-EE72-4FEF-A648-FA7B4E165F07}" name="ProductName"/>
-    <tableColumn id="7" xr3:uid="{419E986C-8A16-491D-BA18-7E929CAD566B}" name="Quantity" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{419E986C-8A16-491D-BA18-7E929CAD566B}" name="Quantity" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{B5B19F64-0A61-4C35-A8BD-8503D4E0B8A4}" name="Unit Price"/>
-    <tableColumn id="1" xr3:uid="{4B774375-693C-434C-9180-F03D73BB7731}" name="Total Price" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{4B774375-693C-434C-9180-F03D73BB7731}" name="Total Price" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5605,13 +5727,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2D221A-1F93-4E8D-B1BD-A9CD4616FBDE}">
-  <dimension ref="A3:B10"/>
+  <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -5681,70 +5803,39 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
         <v>247</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" s="2">
-        <v>1219092.75</v>
+        <v>307043</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="B5" s="2">
-        <v>3586923</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B6" s="2">
-        <v>8961.7000000000025</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="2">
-        <v>11108.969999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="2">
-        <v>295106.04000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="2">
         <v>307043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="2">
-        <v>5428235.46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5756,7 +5847,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
